--- a/data/trans_bre/IP2001-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2001-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>-9,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-25,12%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-11,47%</t>
+          <t>38,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-35,16%</t>
+          <t>-17,64%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 6,02</t>
+          <t>-5,4; 3,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 1,09</t>
+          <t>-3,08; 7,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 3,28</t>
+          <t>-0,61; 9,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 0,53</t>
+          <t>-5,24; 2,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,75; 62,38</t>
+          <t>-48,02; 54,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,2; 10,43</t>
+          <t>-23,31; 87,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,79; 29,21</t>
+          <t>-5,16; 108,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,23; 12,21</t>
+          <t>-63,97; 82,38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,78%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>-25,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>38,88%</t>
+          <t>-11,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-17,64%</t>
+          <t>-35,16%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 3,47</t>
+          <t>-4,24; 6,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 7,23</t>
+          <t>-8,48; 1,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 9,21</t>
+          <t>-6,33; 3,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 2,67</t>
+          <t>-5,59; 0,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,02; 54,13</t>
+          <t>-29,75; 62,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 87,39</t>
+          <t>-50,2; 10,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 108,95</t>
+          <t>-39,79; 29,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-63,97; 82,38</t>
+          <t>-62,23; 12,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2001-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2001-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-14,95%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>137,01%</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 2,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 1,85</t>
+          <t>-3,79; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 6,06</t>
+          <t>0,0; 10,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-80,13; 667,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,19 +698,19 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-83,77; 227,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-80,2; 1873,01</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,78%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>38,88%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-17,64%</t>
+          <t>-33,32%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 3,47</t>
+          <t>-2,91; 2,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 7,23</t>
+          <t>-2,12; 5,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 9,21</t>
+          <t>-2,39; 5,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 2,67</t>
+          <t>-5,66; 1,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,02; 54,13</t>
+          <t>-48,36; 104,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 87,39</t>
+          <t>-25,43; 132,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 108,95</t>
+          <t>-29,14; 109,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,97; 82,38</t>
+          <t>-77,45; 55,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-25,12%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-11,47%</t>
+          <t>-6,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-35,16%</t>
+          <t>-5,87%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 6,02</t>
+          <t>-6,51; 6,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 1,09</t>
+          <t>-5,13; 8,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 3,28</t>
+          <t>-7,0; 5,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 0,53</t>
+          <t>-4,65; 4,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,75; 62,38</t>
+          <t>-40,28; 68,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-50,2; 10,43</t>
+          <t>-29,43; 85,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-39,79; 29,21</t>
+          <t>-35,09; 40,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-62,23; 12,21</t>
+          <t>-53,91; 122,83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,88%</t>
+          <t>-31,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-24,86%</t>
+          <t>-40,59%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,96</t>
+          <t>-3,89; 6,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 2,38</t>
+          <t>-11,12; 0,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 3,39</t>
+          <t>-3,24; 8,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 0,63</t>
+          <t>-6,52; 0,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 43,16</t>
+          <t>-28,51; 73,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 29,64</t>
+          <t>-59,05; 7,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,83; 40,05</t>
+          <t>-26,85; 107,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,8; 12,83</t>
+          <t>-69,9; 11,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,49</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,74%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,88%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,1%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-24,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 2,97</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 2,6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,84; 3,62</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 0,5</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-21,38; 43,28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-26,54; 31,46</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-16,86; 43,29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-49,09; 10,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP2001-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2001-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,0</t>
+          <t>-3,6; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,67</t>
+          <t>0,0; 10,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,98</t>
+          <t>-2,61; 3,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 5,95</t>
+          <t>-2,16; 5,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 5,7</t>
+          <t>-2,95; 5,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 1,58</t>
+          <t>-5,69; 1,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,36; 104,32</t>
+          <t>-44,63; 125,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 132,07</t>
+          <t>-25,21; 128,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 109,13</t>
+          <t>-34,91; 104,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-77,45; 55,01</t>
+          <t>-73,43; 55,8</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 6,96</t>
+          <t>-5,8; 7,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 8,65</t>
+          <t>-4,74; 8,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 5,61</t>
+          <t>-6,69; 5,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 4,64</t>
+          <t>-5,38; 4,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,28; 68,43</t>
+          <t>-34,79; 71,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,43; 85,71</t>
+          <t>-29,64; 89,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,09; 40,51</t>
+          <t>-35,43; 42,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-53,91; 122,83</t>
+          <t>-57,64; 98,49</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 6,93</t>
+          <t>-3,82; 6,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 0,89</t>
+          <t>-10,77; 0,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 8,14</t>
+          <t>-3,23; 8,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 0,24</t>
+          <t>-6,23; 0,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 73,04</t>
+          <t>-26,85; 76,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,05; 7,22</t>
+          <t>-56,33; 3,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 107,63</t>
+          <t>-26,71; 112,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,9; 11,09</t>
+          <t>-68,64; 12,23</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 2,97</t>
+          <t>-1,97; 3,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,6</t>
+          <t>-2,67; 2,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,62</t>
+          <t>-1,99; 3,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,5</t>
+          <t>-3,74; 0,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 43,28</t>
+          <t>-21,34; 43,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 31,46</t>
+          <t>-24,64; 32,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 43,29</t>
+          <t>-17,81; 43,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 10,57</t>
+          <t>-49,97; 15,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2001-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2001-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 0,0</t>
+          <t>-3,61; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,75</t>
+          <t>0,0; 11,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-33,32%</t>
+          <t>-33,94%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 3,27</t>
+          <t>-2,72; 3,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 5,88</t>
+          <t>-1,94; 6,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 5,66</t>
+          <t>-2,02; 5,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 1,74</t>
+          <t>-5,43; 1,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 125,59</t>
+          <t>-46,37; 121,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,21; 128,25</t>
+          <t>-24,62; 124,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,91; 104,65</t>
+          <t>-25,45; 102,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-73,43; 55,8</t>
+          <t>-74,81; 67,8</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,87%</t>
+          <t>-4,81%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 7,42</t>
+          <t>-6,19; 6,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 8,5</t>
+          <t>-4,97; 8,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 5,81</t>
+          <t>-7,73; 5,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 4,09</t>
+          <t>-4,71; 4,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,79; 71,94</t>
+          <t>-36,17; 66,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 89,16</t>
+          <t>-29,56; 79,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,43; 42,37</t>
+          <t>-37,36; 37,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-57,64; 98,49</t>
+          <t>-53,08; 106,44</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-40,59%</t>
+          <t>-45,34%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 6,9</t>
+          <t>-4,15; 6,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 0,22</t>
+          <t>-10,72; 1,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 8,42</t>
+          <t>-3,28; 7,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 0,43</t>
+          <t>-7,43; -0,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 76,97</t>
+          <t>-30,7; 72,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,33; 3,9</t>
+          <t>-57,65; 12,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,71; 112,45</t>
+          <t>-29,2; 103,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-68,64; 12,23</t>
+          <t>-75,28; 0,36</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-24,86%</t>
+          <t>-27,53%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 3,0</t>
+          <t>-2,07; 2,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 2,57</t>
+          <t>-2,77; 2,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,66</t>
+          <t>-1,81; 3,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,61</t>
+          <t>-3,78; 0,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 43,16</t>
+          <t>-22,38; 43,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,64; 32,02</t>
+          <t>-25,37; 29,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 43,39</t>
+          <t>-16,83; 40,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-49,97; 15,11</t>
+          <t>-51,57; 12,44</t>
         </is>
       </c>
     </row>
